--- a/fall-2013/cs6353/project/performance.xlsx
+++ b/fall-2013/cs6353/project/performance.xlsx
@@ -72,19 +72,16 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0488407699037617E-2"/>
+          <c:x val="7.1988407699037624E-2"/>
           <c:y val="0.19480351414406533"/>
-          <c:w val="0.78518503937007889"/>
-          <c:h val="0.75379593175853021"/>
+          <c:w val="0.80372681539807544"/>
+          <c:h val="0.68921660834062393"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -93,800 +90,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>%CPU used by Keystone Process</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$10:$G$238</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="229"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>33.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>32.4</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>38.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>61.28</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>61.2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>60.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>59.4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>60.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>60.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>60.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>60.48</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>61.08</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60.6</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>53.09</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>50.7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>51.3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>49.8</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>48.6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>52.6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>50.3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>49.8</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>51.1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>49.2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>49.2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50.2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>46.6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>52.1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>52.6</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>49.8</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>52.6</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>51.9</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>50.3</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>49.4</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>52.4</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>51.3</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>50.2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>48.6</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>52.6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>52.4</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>50.5</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>52.4</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>46.2</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>50.2</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>52.2</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>49.8</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>51.7</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>52.1</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>50.9</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>49.4</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>50.4</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>50.5</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>49.6</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>52.4</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>51.9</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>50.8</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>52.4</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>48.3</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>50.6</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="68927872"/>
-        <c:axId val="68892544"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="68927872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68892544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="68892544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68927872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21571522309711288"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:title>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.1988407699037624E-2"/>
-          <c:y val="0.19480351414406533"/>
-          <c:w val="0.80372681539807522"/>
-          <c:h val="0.68921660834062404"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$S$215</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>%CPU of Overall system </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>CPU Usage of the Server Machine</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -1624,89 +828,137 @@
                   <c:v>8.77</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>6.89</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>9.6300000000000008</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>8.7200000000000006</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>8.82</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>8.09</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>8.09</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>7.76</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>8.64</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>7.35</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>8.0299999999999994</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>8.2100000000000009</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>8.41</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>8.17</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>7.92</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>7.21</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>7.91</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>7.79</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>6.37</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>7.74</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>8.6</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73900800"/>
-        <c:axId val="73857280"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X Axis (time in Sec)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Y Axis (CPU Usage)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>CPU Usage</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="82639488"/>
+        <c:axId val="82657664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73900800"/>
+        <c:axId val="82639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73857280"/>
+        <c:crossAx val="82657664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73857280"/>
+        <c:axId val="82657664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,14 +966,986 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73900800"/>
+        <c:crossAx val="82639488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70872323027038364"/>
+          <c:y val="7.131743948673086E-2"/>
+          <c:w val="0.29127676972961641"/>
+          <c:h val="0.41896981627296587"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0488407699037617E-2"/>
+          <c:y val="0.19464450337851005"/>
+          <c:w val="0.81042125984251967"/>
+          <c:h val="0.75399689885887189"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CPU usage by keystone Process Over time</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$291</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="278"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.28</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60.48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>61.08</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>53.09</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X Axis (time in second)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Y Axis (Cpu Usage )</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="52676096"/>
+        <c:axId val="52674560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52676096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52674560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52674560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52676096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.54258333333333331"/>
+          <c:y val="1.7760716766450267E-2"/>
+          <c:w val="0.45186111111111116"/>
+          <c:h val="0.32148496361786688"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1738,19 +1962,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1767,20 +1991,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2083,36 +2307,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G9:S478"/>
+  <dimension ref="G13:S514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="Q244" sqref="Q244"/>
+    <sheetView tabSelected="1" topLeftCell="C221" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y251" sqref="Y251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="9" spans="7:7">
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7">
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7">
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
     <row r="13" spans="7:7">
-      <c r="G13">
+      <c r="G13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2253,52 +2457,52 @@
     </row>
     <row r="41" spans="7:7">
       <c r="G41">
-        <v>28.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42">
-        <v>28.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44">
-        <v>29.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45">
-        <v>37.200000000000003</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46">
-        <v>33.200000000000003</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48">
-        <v>1.4</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49">
-        <v>3</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50">
-        <v>17</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="51" spans="7:7">
@@ -3314,331 +3518,490 @@
       </c>
     </row>
     <row r="239" spans="7:19">
+      <c r="G239">
+        <v>51.4</v>
+      </c>
       <c r="S239">
         <v>0.61</v>
       </c>
     </row>
     <row r="240" spans="7:19">
+      <c r="G240">
+        <v>50.8</v>
+      </c>
       <c r="S240">
         <v>0.15</v>
       </c>
     </row>
-    <row r="241" spans="19:19">
+    <row r="241" spans="7:19">
+      <c r="G241">
+        <v>50.5</v>
+      </c>
       <c r="S241">
         <v>0.25</v>
       </c>
     </row>
-    <row r="242" spans="19:19">
+    <row r="242" spans="7:19">
+      <c r="G242">
+        <v>49.6</v>
+      </c>
       <c r="S242">
         <v>0.3</v>
       </c>
     </row>
-    <row r="243" spans="19:19">
+    <row r="243" spans="7:19">
+      <c r="G243">
+        <v>51</v>
+      </c>
       <c r="S243">
         <v>0.76</v>
       </c>
     </row>
-    <row r="244" spans="19:19">
+    <row r="244" spans="7:19">
+      <c r="G244">
+        <v>52.4</v>
+      </c>
       <c r="S244">
         <v>0.25</v>
       </c>
     </row>
-    <row r="245" spans="19:19">
+    <row r="245" spans="7:19">
+      <c r="G245">
+        <v>51.6</v>
+      </c>
       <c r="S245">
         <v>0.2</v>
       </c>
     </row>
-    <row r="246" spans="19:19">
+    <row r="246" spans="7:19">
+      <c r="G246">
+        <v>51</v>
+      </c>
       <c r="S246">
         <v>0.45</v>
       </c>
     </row>
-    <row r="247" spans="19:19">
+    <row r="247" spans="7:19">
+      <c r="G247">
+        <v>51.9</v>
+      </c>
       <c r="S247">
         <v>0.35</v>
       </c>
     </row>
-    <row r="248" spans="19:19">
+    <row r="248" spans="7:19">
+      <c r="G248">
+        <v>51.2</v>
+      </c>
       <c r="S248">
         <v>0.65</v>
       </c>
     </row>
-    <row r="249" spans="19:19">
+    <row r="249" spans="7:19">
+      <c r="G249">
+        <v>51</v>
+      </c>
       <c r="S249">
         <v>0.3</v>
       </c>
     </row>
-    <row r="250" spans="19:19">
+    <row r="250" spans="7:19">
+      <c r="G250">
+        <v>51.2</v>
+      </c>
       <c r="S250">
         <v>0.1</v>
       </c>
     </row>
-    <row r="251" spans="19:19">
+    <row r="251" spans="7:19">
+      <c r="G251">
+        <v>50.8</v>
+      </c>
       <c r="S251">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="252" spans="19:19">
+    <row r="252" spans="7:19">
+      <c r="G252">
+        <v>47</v>
+      </c>
       <c r="S252">
         <v>0.3</v>
       </c>
     </row>
-    <row r="253" spans="19:19">
+    <row r="253" spans="7:19">
+      <c r="G253">
+        <v>51.6</v>
+      </c>
       <c r="S253">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="254" spans="19:19">
+    <row r="254" spans="7:19">
+      <c r="G254">
+        <v>51.6</v>
+      </c>
       <c r="S254">
         <v>6.55</v>
       </c>
     </row>
-    <row r="255" spans="19:19">
+    <row r="255" spans="7:19">
+      <c r="G255">
+        <v>50.8</v>
+      </c>
       <c r="S255">
         <v>7.83</v>
       </c>
     </row>
-    <row r="256" spans="19:19">
+    <row r="256" spans="7:19">
+      <c r="G256">
+        <v>52.4</v>
+      </c>
       <c r="S256">
         <v>8.68</v>
       </c>
     </row>
-    <row r="257" spans="19:19">
+    <row r="257" spans="7:19">
+      <c r="G257">
+        <v>47.6</v>
+      </c>
       <c r="S257">
         <v>9.34</v>
       </c>
     </row>
-    <row r="258" spans="19:19">
+    <row r="258" spans="7:19">
+      <c r="G258">
+        <v>48.3</v>
+      </c>
       <c r="S258">
         <v>9.67</v>
       </c>
     </row>
-    <row r="259" spans="19:19">
+    <row r="259" spans="7:19">
+      <c r="G259">
+        <v>50.6</v>
+      </c>
       <c r="S259">
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="260" spans="19:19">
+    <row r="260" spans="7:19">
+      <c r="G260">
+        <v>50</v>
+      </c>
       <c r="S260">
         <v>10.48</v>
       </c>
     </row>
-    <row r="261" spans="19:19">
+    <row r="261" spans="7:19">
+      <c r="G261">
+        <v>0</v>
+      </c>
       <c r="S261">
         <v>9.51</v>
       </c>
     </row>
-    <row r="262" spans="19:19">
+    <row r="262" spans="7:19">
+      <c r="G262">
+        <v>0</v>
+      </c>
       <c r="S262">
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="263" spans="19:19">
+    <row r="263" spans="7:19">
+      <c r="G263">
+        <v>0</v>
+      </c>
       <c r="S263">
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="264" spans="19:19">
+    <row r="264" spans="7:19">
+      <c r="G264">
+        <v>0</v>
+      </c>
       <c r="S264">
         <v>11.08</v>
       </c>
     </row>
-    <row r="265" spans="19:19">
+    <row r="265" spans="7:19">
+      <c r="G265">
+        <v>0</v>
+      </c>
       <c r="S265">
         <v>9.66</v>
       </c>
     </row>
-    <row r="266" spans="19:19">
+    <row r="266" spans="7:19">
+      <c r="G266">
+        <v>0</v>
+      </c>
       <c r="S266">
         <v>8.61</v>
       </c>
     </row>
-    <row r="267" spans="19:19">
+    <row r="267" spans="7:19">
+      <c r="G267">
+        <v>0</v>
+      </c>
       <c r="S267">
         <v>9.1</v>
       </c>
     </row>
-    <row r="268" spans="19:19">
+    <row r="268" spans="7:19">
+      <c r="G268">
+        <v>0</v>
+      </c>
       <c r="S268">
         <v>11.03</v>
       </c>
     </row>
-    <row r="269" spans="19:19">
+    <row r="269" spans="7:19">
+      <c r="G269">
+        <v>0</v>
+      </c>
       <c r="S269">
         <v>10.07</v>
       </c>
     </row>
-    <row r="270" spans="19:19">
+    <row r="270" spans="7:19">
+      <c r="G270">
+        <v>0</v>
+      </c>
       <c r="S270">
         <v>10.15</v>
       </c>
     </row>
-    <row r="271" spans="19:19">
+    <row r="271" spans="7:19">
+      <c r="G271">
+        <v>0</v>
+      </c>
       <c r="S271">
         <v>10.38</v>
       </c>
     </row>
-    <row r="272" spans="19:19">
+    <row r="272" spans="7:19">
+      <c r="G272">
+        <v>0</v>
+      </c>
       <c r="S272">
         <v>8.11</v>
       </c>
     </row>
-    <row r="273" spans="19:19">
+    <row r="273" spans="7:19">
+      <c r="G273">
+        <v>0</v>
+      </c>
       <c r="S273">
         <v>8.31</v>
       </c>
     </row>
-    <row r="274" spans="19:19">
+    <row r="274" spans="7:19">
+      <c r="G274">
+        <v>0</v>
+      </c>
       <c r="S274">
         <v>11.03</v>
       </c>
     </row>
-    <row r="275" spans="19:19">
+    <row r="275" spans="7:19">
+      <c r="G275">
+        <v>0</v>
+      </c>
       <c r="S275">
         <v>9.27</v>
       </c>
     </row>
-    <row r="276" spans="19:19">
+    <row r="276" spans="7:19">
+      <c r="G276">
+        <v>0</v>
+      </c>
       <c r="S276">
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="277" spans="19:19">
+    <row r="277" spans="7:19">
+      <c r="G277">
+        <v>0</v>
+      </c>
       <c r="S277">
         <v>9.49</v>
       </c>
     </row>
-    <row r="278" spans="19:19">
+    <row r="278" spans="7:19">
+      <c r="G278">
+        <v>0</v>
+      </c>
       <c r="S278">
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="279" spans="19:19">
+    <row r="279" spans="7:19">
+      <c r="G279">
+        <v>0</v>
+      </c>
       <c r="S279">
         <v>9.41</v>
       </c>
     </row>
-    <row r="280" spans="19:19">
+    <row r="280" spans="7:19">
+      <c r="G280">
+        <v>0</v>
+      </c>
       <c r="S280">
         <v>10.08</v>
       </c>
     </row>
-    <row r="281" spans="19:19">
+    <row r="281" spans="7:19">
+      <c r="G281">
+        <v>0</v>
+      </c>
       <c r="S281">
         <v>10.08</v>
       </c>
     </row>
-    <row r="282" spans="19:19">
+    <row r="282" spans="7:19">
+      <c r="G282">
+        <v>0</v>
+      </c>
       <c r="S282">
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="283" spans="19:19">
+    <row r="283" spans="7:19">
+      <c r="G283">
+        <v>0</v>
+      </c>
       <c r="S283">
         <v>9.49</v>
       </c>
     </row>
-    <row r="284" spans="19:19">
+    <row r="284" spans="7:19">
+      <c r="G284">
+        <v>0</v>
+      </c>
       <c r="S284">
         <v>8.69</v>
       </c>
     </row>
-    <row r="285" spans="19:19">
+    <row r="285" spans="7:19">
+      <c r="G285">
+        <v>0</v>
+      </c>
       <c r="S285">
         <v>9.25</v>
       </c>
     </row>
-    <row r="286" spans="19:19">
+    <row r="286" spans="7:19">
+      <c r="G286">
+        <v>0</v>
+      </c>
       <c r="S286">
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="19:19">
+    <row r="287" spans="7:19">
+      <c r="G287">
+        <v>0</v>
+      </c>
       <c r="S287">
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="288" spans="19:19">
+    <row r="288" spans="7:19">
+      <c r="G288">
+        <v>0</v>
+      </c>
       <c r="S288">
         <v>10.36</v>
       </c>
     </row>
-    <row r="289" spans="19:19">
+    <row r="289" spans="7:19">
+      <c r="G289">
+        <v>0</v>
+      </c>
       <c r="S289">
         <v>9.25</v>
       </c>
     </row>
-    <row r="290" spans="19:19">
+    <row r="290" spans="7:19">
+      <c r="G290">
+        <v>0</v>
+      </c>
       <c r="S290">
         <v>9.27</v>
       </c>
     </row>
-    <row r="291" spans="19:19">
+    <row r="291" spans="7:19">
+      <c r="G291">
+        <v>0</v>
+      </c>
       <c r="S291">
         <v>9.11</v>
       </c>
     </row>
-    <row r="292" spans="19:19">
+    <row r="292" spans="7:19">
       <c r="S292">
         <v>10.14</v>
       </c>
     </row>
-    <row r="293" spans="19:19">
+    <row r="293" spans="7:19">
       <c r="S293">
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="294" spans="19:19">
+    <row r="294" spans="7:19">
       <c r="S294">
         <v>8.66</v>
       </c>
     </row>
-    <row r="295" spans="19:19">
+    <row r="295" spans="7:19">
       <c r="S295">
         <v>8.86</v>
       </c>
     </row>
-    <row r="296" spans="19:19">
+    <row r="296" spans="7:19">
       <c r="S296">
         <v>9.76</v>
       </c>
     </row>
-    <row r="297" spans="19:19">
+    <row r="297" spans="7:19">
       <c r="S297">
         <v>9.73</v>
       </c>
     </row>
-    <row r="298" spans="19:19">
+    <row r="298" spans="7:19">
       <c r="S298">
         <v>9.92</v>
       </c>
     </row>
-    <row r="299" spans="19:19">
+    <row r="299" spans="7:19">
       <c r="S299">
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="300" spans="19:19">
+    <row r="300" spans="7:19">
       <c r="S300">
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="301" spans="19:19">
+    <row r="301" spans="7:19">
       <c r="S301">
         <v>9.91</v>
       </c>
     </row>
-    <row r="302" spans="19:19">
+    <row r="302" spans="7:19">
       <c r="S302">
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="303" spans="19:19">
+    <row r="303" spans="7:19">
       <c r="S303">
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="304" spans="19:19">
+    <row r="304" spans="7:19">
       <c r="S304">
         <v>9.08</v>
       </c>
@@ -4410,107 +4773,287 @@
     </row>
     <row r="458" spans="19:19">
       <c r="S458">
-        <v>6.89</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="459" spans="19:19">
       <c r="S459">
-        <v>9.6300000000000008</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="460" spans="19:19">
       <c r="S460">
-        <v>8.7200000000000006</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="461" spans="19:19">
       <c r="S461">
-        <v>8.82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="462" spans="19:19">
       <c r="S462">
-        <v>8.09</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="463" spans="19:19">
       <c r="S463">
-        <v>8.09</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="464" spans="19:19">
       <c r="S464">
-        <v>8.0399999999999991</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="465" spans="19:19">
       <c r="S465">
-        <v>7.76</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="466" spans="19:19">
       <c r="S466">
-        <v>8.64</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="467" spans="19:19">
       <c r="S467">
-        <v>7.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="468" spans="19:19">
       <c r="S468">
-        <v>8.0299999999999994</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="469" spans="19:19">
       <c r="S469">
-        <v>8.2100000000000009</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="470" spans="19:19">
       <c r="S470">
-        <v>8.41</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="471" spans="19:19">
       <c r="S471">
-        <v>8.17</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="472" spans="19:19">
       <c r="S472">
-        <v>7.92</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="473" spans="19:19">
       <c r="S473">
-        <v>7.21</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="474" spans="19:19">
       <c r="S474">
-        <v>7.91</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="475" spans="19:19">
       <c r="S475">
-        <v>7.79</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="476" spans="19:19">
       <c r="S476">
-        <v>6.37</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="477" spans="19:19">
       <c r="S477">
-        <v>7.74</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="478" spans="19:19">
       <c r="S478">
-        <v>8.6</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="479" spans="19:19">
+      <c r="S479">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="480" spans="19:19">
+      <c r="S480">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="481" spans="19:19">
+      <c r="S481">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="482" spans="19:19">
+      <c r="S482">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="483" spans="19:19">
+      <c r="S483">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="484" spans="19:19">
+      <c r="S484">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="485" spans="19:19">
+      <c r="S485">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="486" spans="19:19">
+      <c r="S486">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="487" spans="19:19">
+      <c r="S487">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="488" spans="19:19">
+      <c r="S488">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="489" spans="19:19">
+      <c r="S489">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="490" spans="19:19">
+      <c r="S490">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="491" spans="19:19">
+      <c r="S491">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="492" spans="19:19">
+      <c r="S492">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="493" spans="19:19">
+      <c r="S493">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="494" spans="19:19">
+      <c r="S494">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="495" spans="19:19">
+      <c r="S495">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="496" spans="19:19">
+      <c r="S496">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="497" spans="19:19">
+      <c r="S497">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="498" spans="19:19">
+      <c r="S498">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="499" spans="19:19">
+      <c r="S499">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="500" spans="19:19">
+      <c r="S500">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="501" spans="19:19">
+      <c r="S501">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="502" spans="19:19">
+      <c r="S502">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="503" spans="19:19">
+      <c r="S503">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="504" spans="19:19">
+      <c r="S504">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="505" spans="19:19">
+      <c r="S505">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="506" spans="19:19">
+      <c r="S506">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="507" spans="19:19">
+      <c r="S507">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="508" spans="19:19">
+      <c r="S508">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="509" spans="19:19">
+      <c r="S509">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="510" spans="19:19">
+      <c r="S510">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="511" spans="19:19">
+      <c r="S511">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="512" spans="19:19">
+      <c r="S512">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="513" spans="19:19">
+      <c r="S513">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="514" spans="19:19">
+      <c r="S514">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
